--- a/Test/BO/Error_150.xlsx
+++ b/Test/BO/Error_150.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1745319286269352</v>
+        <v>0.007084026488219264</v>
       </c>
       <c r="B1" t="n">
-        <v>1.150098716409381</v>
+        <v>0.02225063104551595</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2021259437880611</v>
+        <v>0.002271620139237873</v>
       </c>
       <c r="D1" t="n">
-        <v>0.8585695402153888</v>
+        <v>0.006982570353642137</v>
       </c>
       <c r="E1" t="n">
-        <v>0.04291407809922143</v>
+        <v>1.603551098927625e-05</v>
       </c>
       <c r="F1" t="n">
-        <v>0.01100840776824352</v>
+        <v>1.686831558966873e-05</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2882491295819605</v>
+        <v>0.002587613237709618</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9036245326282617</v>
+        <v>0.007675328032454853</v>
       </c>
       <c r="I1" t="n">
-        <v>0.8635688649664175</v>
+        <v>0.004906277692854122</v>
       </c>
       <c r="J1" t="n">
-        <v>-0.0003437494063018853</v>
+        <v>1.35258153846074e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Test/BO/Error_150.xlsx
+++ b/Test/BO/Error_150.xlsx
@@ -413,47 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.007084026488219264</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.02225063104551595</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.002271620139237873</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.006982570353642137</v>
-      </c>
-      <c r="E1" t="n">
-        <v>1.603551098927625e-05</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1.686831558966873e-05</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.002587613237709618</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.007675328032454853</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.004906277692854122</v>
-      </c>
-      <c r="J1" t="n">
-        <v>1.35258153846074e-05</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>